--- a/Projet_descente_de charge.xlsx
+++ b/Projet_descente_de charge.xlsx
@@ -1,45 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simonin25-my.sharepoint.com/personal/nmorand_simonin_com/Documents/_Descente_de_charge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{880C690F-F590-4B68-8577-2C7F7C4B603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FEEC818-059E-4A34-97F2-54ECDB44071F}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{880C690F-F590-4B68-8577-2C7F7C4B603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5E7A6A5-4E59-49C6-A059-E476AEE4F013}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1CEE3695-0827-41FF-8D1E-907A8B547F46}"/>
+    <workbookView xWindow="18735" yWindow="-16410" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1CEE3695-0827-41FF-8D1E-907A8B547F46}"/>
   </bookViews>
   <sheets>
-    <sheet name="data_structure" sheetId="4" r:id="rId1"/>
-    <sheet name="N° Note de Calcul" sheetId="3" r:id="rId2"/>
-    <sheet name="flow-chart v1 (2)" sheetId="2" r:id="rId3"/>
-    <sheet name="flow-chart v1" sheetId="1" r:id="rId4"/>
+    <sheet name="Schema block" sheetId="5" r:id="rId1"/>
+    <sheet name="data_structure" sheetId="4" r:id="rId2"/>
+    <sheet name="N° Note de Calcul" sheetId="3" r:id="rId3"/>
+    <sheet name="flow-chart v1 (2)" sheetId="2" r:id="rId4"/>
+    <sheet name="flow-chart v1" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_a1" localSheetId="1">'N° Note de Calcul'!$E$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'N° Note de Calcul'!$A$1:$F$1622</definedName>
-    <definedName name="_t1" localSheetId="1">'N° Note de Calcul'!$C$16</definedName>
-    <definedName name="_t2" localSheetId="1">'N° Note de Calcul'!$C$20</definedName>
-    <definedName name="d" localSheetId="1">'N° Note de Calcul'!$K$50</definedName>
-    <definedName name="F" localSheetId="1">'N° Note de Calcul'!$D$44</definedName>
-    <definedName name="F_V_R_k" localSheetId="1">'N° Note de Calcul'!$A$33</definedName>
-    <definedName name="fh_0_k" localSheetId="1">'N° Note de Calcul'!$C$14</definedName>
-    <definedName name="fh_α1_k" localSheetId="1">'N° Note de Calcul'!$C$18</definedName>
-    <definedName name="fh_α2_k" localSheetId="1">'N° Note de Calcul'!$C$22</definedName>
-    <definedName name="fu_k" localSheetId="1">'N° Note de Calcul'!$C$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'N° Note de Calcul'!$1:$1</definedName>
-    <definedName name="kmod" localSheetId="1">'N° Note de Calcul'!$E$41</definedName>
-    <definedName name="My_Rk" localSheetId="1">'N° Note de Calcul'!$C$9</definedName>
-    <definedName name="n" localSheetId="1">'N° Note de Calcul'!$C$36</definedName>
-    <definedName name="nef" localSheetId="1">'N° Note de Calcul'!$D$38</definedName>
-    <definedName name="α1" localSheetId="1">'N° Note de Calcul'!$C$17</definedName>
-    <definedName name="α2" localSheetId="1">'N° Note de Calcul'!$C$21</definedName>
-    <definedName name="β" localSheetId="1">'N° Note de Calcul'!$C$24</definedName>
-    <definedName name="γm" localSheetId="1">'N° Note de Calcul'!$E$42</definedName>
-    <definedName name="ρk" localSheetId="1">'N° Note de Calcul'!$C$13</definedName>
+    <definedName name="_a1" localSheetId="2">'N° Note de Calcul'!$E$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'N° Note de Calcul'!$A$1:$F$1622</definedName>
+    <definedName name="_t1" localSheetId="2">'N° Note de Calcul'!$C$16</definedName>
+    <definedName name="_t2" localSheetId="2">'N° Note de Calcul'!$C$20</definedName>
+    <definedName name="d" localSheetId="2">'N° Note de Calcul'!$K$50</definedName>
+    <definedName name="F" localSheetId="2">'N° Note de Calcul'!$D$44</definedName>
+    <definedName name="F_V_R_k" localSheetId="2">'N° Note de Calcul'!$A$33</definedName>
+    <definedName name="fh_0_k" localSheetId="2">'N° Note de Calcul'!$C$14</definedName>
+    <definedName name="fh_α1_k" localSheetId="2">'N° Note de Calcul'!$C$18</definedName>
+    <definedName name="fh_α2_k" localSheetId="2">'N° Note de Calcul'!$C$22</definedName>
+    <definedName name="fu_k" localSheetId="2">'N° Note de Calcul'!$C$8</definedName>
+    <definedName name="kmod" localSheetId="2">'N° Note de Calcul'!$E$41</definedName>
+    <definedName name="My_Rk" localSheetId="2">'N° Note de Calcul'!$C$9</definedName>
+    <definedName name="n" localSheetId="2">'N° Note de Calcul'!$C$36</definedName>
+    <definedName name="nef" localSheetId="2">'N° Note de Calcul'!$D$38</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'N° Note de Calcul'!$1:$1</definedName>
+    <definedName name="α1" localSheetId="2">'N° Note de Calcul'!$C$17</definedName>
+    <definedName name="α2" localSheetId="2">'N° Note de Calcul'!$C$21</definedName>
+    <definedName name="β" localSheetId="2">'N° Note de Calcul'!$C$24</definedName>
+    <definedName name="γm" localSheetId="2">'N° Note de Calcul'!$E$42</definedName>
+    <definedName name="ρk" localSheetId="2">'N° Note de Calcul'!$C$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5250" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="1764">
   <si>
     <t>Numéro</t>
   </si>
@@ -5392,6 +5393,9 @@
   </si>
   <si>
     <t>crop_image()</t>
+  </si>
+  <si>
+    <t>disp</t>
   </si>
 </sst>
 </file>
@@ -5744,6 +5748,8 @@
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5759,8 +5765,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5780,6 +5784,9351 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09A2AED-6353-495C-BC70-E22EC9C9731D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1043940" y="15240"/>
+          <a:ext cx="14904720" cy="21374100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>393050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CEDE9F6-9BB6-4691-9327-8EEDAD338BCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1627490" y="6096473"/>
+          <a:ext cx="3035406" cy="7481822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Les différents</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> modules:</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>786131</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180816</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connecteur : en angle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291C35E9-2B48-47A2-9267-C1D14966307F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8279528" y="5939393"/>
+          <a:ext cx="174466" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>174466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>174466</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913F9B9B-1365-4AF7-A381-E4B19C60EF42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781801" y="6026626"/>
+          <a:ext cx="3169919" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GROUPES[id].merge_points_charges()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B3F6E2-65AB-419B-AE8D-1B6BDE08B6EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781801" y="5486400"/>
+          <a:ext cx="3169919" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GROUPES[id].load_ddc_combinee()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6548BF89-6210-4B3E-8A56-36A7CA6F865B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="6560820"/>
+          <a:ext cx="4754880" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0"/>
+            <a:t>for numero_cas in config.keys()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>174466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>792479</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Connecteur : en angle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F7A7CC-C0CE-42A9-8215-E955F675E2C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8678783" y="6080363"/>
+          <a:ext cx="168434" cy="792479"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>786131</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Connecteur : en angle 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E688F0A-DEF5-4A7F-AE2A-54280B81F312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8275321" y="5394960"/>
+          <a:ext cx="182880" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985610D2-4D70-40FC-AA15-52F0A9DBB71E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="182880"/>
+          <a:ext cx="2377440" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Create_ddc.ipynb</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893FACC1-03FC-4576-979A-D88FCBCF2BD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1234440" y="914400"/>
+          <a:ext cx="2377440" cy="356458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>import config.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC398B1-7CA5-4FAF-99CB-1A12305B1CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5196840" y="914401"/>
+          <a:ext cx="2377440" cy="365759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>review_csv_groupes()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>416443</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>403385</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518CBF21-8210-4885-B31E-2B88A4DD7CBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9575683" y="948018"/>
+          <a:ext cx="2364382" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>P3: visu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24ABCD69-665E-452E-BA06-C6AC03EA5A64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="2362200"/>
+          <a:ext cx="2377440" cy="356459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>workbook = xw.Book()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0DDD5E4-02B6-48F1-953A-E9208CCD0C2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="3108960"/>
+          <a:ext cx="2377440" cy="354329"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>config = import_config_excel()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB7C9ED-4B0E-49A8-9185-138B117F8C5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="1645920"/>
+          <a:ext cx="2377440" cy="350357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>data = import_data_yaml()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>397810</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>397811</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Connector: Elbow 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA63FC2-8018-4D94-A5EF-25B734268AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5013738" y="-2043955"/>
+          <a:ext cx="369346" cy="5547361"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>162990</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Connector: Elbow 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65FE4D1-B610-4817-BE58-6CF489A741D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1590254" y="1707524"/>
+          <a:ext cx="1269572" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 14772"/>
+            <a:gd name="adj2" fmla="val 157692"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>389891</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>164688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>402591</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Connector: Elbow 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D887D8F-729C-4509-B7E2-2579C2DC10D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3020490" y="2913809"/>
+          <a:ext cx="390301" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Connector: Elbow 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7903C40-FA28-4952-8A8A-F5ADA722E8A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2631869" y="1062149"/>
+          <a:ext cx="375062" cy="792480"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BCDABA-2839-4586-BC46-4FC2751C0376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5196840" y="1645920"/>
+          <a:ext cx="2377440" cy="354554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>create_main_info_latex()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>169770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BA97F2-FA87-4C1D-A50C-03CC99837DDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5196840" y="2377440"/>
+          <a:ext cx="2377440" cy="352650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>insert_nb_de_cas_dans_latex()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>389890</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>402590</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connector: Elbow 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88AF9671-CE01-4E9B-AE81-21821244DAA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6202680" y="1463040"/>
+          <a:ext cx="365760" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387074</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>174214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399774</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Connector: Elbow 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB92ECE-3E1B-4BF7-B15C-8D01196FE3AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6192356" y="2187052"/>
+          <a:ext cx="380776" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8CE054-EB47-4380-A53C-4F1A3B182775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5989320" y="3108960"/>
+          <a:ext cx="2377440" cy="360270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>for id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> in groupes</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>169770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Connector: Elbow 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58BBD3D-6628-4010-BD21-8518F1BD4D39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
+          <a:endCxn id="27" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6592365" y="2523285"/>
+          <a:ext cx="378870" cy="792480"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536D7E04-6B18-405C-904E-77550C9C96F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781801" y="3840481"/>
+          <a:ext cx="3962399" cy="365759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>class: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Group</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>()  GROUPES[id]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396241</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Connector: Elbow 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94AE1595-97F9-4FB6-B3C7-A2AEB83783F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7784895" y="2862374"/>
+          <a:ext cx="371251" cy="1584961"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603B9D73-7685-4D07-8D38-5D850D983333}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781801" y="4389121"/>
+          <a:ext cx="3169919" cy="365759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GROUPES[id].</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>load_coordonnees()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B5F9C1-0FF5-4D7C-B612-079F90653124}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781801" y="4937760"/>
+          <a:ext cx="3169919" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GROUPES[id].load_ddc_individuelle()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>792479</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE7072B-05DC-435E-8244-2078F69D9BBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9159239" y="10424161"/>
+          <a:ext cx="3169921" cy="365759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GROUPES[id].dict_cas[numero_cas].create_df_lineaire()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396242</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Connector: Elbow 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84C6A5E-CCD6-4F10-A616-5FC935E69CE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8473441" y="4099560"/>
+          <a:ext cx="182881" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>786131</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Connector: Elbow 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E99F5F-31EE-4CD4-B974-8B13A3BDF948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="2"/>
+          <a:endCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8275321" y="4846320"/>
+          <a:ext cx="182880" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396241</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Connector: Elbow 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29E2100-991D-4F8C-8709-A82ACFEA5B75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="62" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9673591" y="9879331"/>
+          <a:ext cx="160020" cy="1981199"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7884ED2-90E9-4A17-B141-0F9E4CC9614E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781801" y="11498581"/>
+          <a:ext cx="2377439" cy="365759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>annotation_Yolo_format()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>181087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Connector: Elbow 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101EC731-65F9-4480-907D-86FED56A38C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="1"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5989321" y="3289095"/>
+          <a:ext cx="1584961" cy="7841932"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 114423"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>178407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>178406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98EDE77C-680B-496A-8262-0412FB4C7D0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6789421" y="12225627"/>
+          <a:ext cx="2369819" cy="365759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>class: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Face</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_planche</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>() F</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393426</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>182216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>398188</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>174596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Connector: Elbow 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D33734F-E80D-4144-BE94-2C73DD5F8C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7791017" y="12040365"/>
+          <a:ext cx="358140" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>398187</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>174596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>401045</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Connector: Elbow 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFD0FD9-F08C-4BE5-838E-DA0B64AFB52E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7878314" y="12681729"/>
+          <a:ext cx="191164" cy="2858"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11431</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F85A1A45-AD64-41EB-92CA-2FB9471FC4C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6793231" y="12778740"/>
+          <a:ext cx="2366009" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>F.create()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>767797</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>182216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F6EFF6-1889-488D-8923-40114DE57744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="13327380"/>
+          <a:ext cx="2352757" cy="365096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>stitch_defaut()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>174596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>172691</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51293855-3650-4836-BC75-1A72380E10E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="15147896"/>
+          <a:ext cx="2377440" cy="363855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>P.enregistre_partie()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>771524</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63B73F8-6D5A-4950-8482-E8377B855DD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="19728180"/>
+          <a:ext cx="2356484" cy="365759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>F.enregistre_face()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>384851</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>401045</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Connector: Elbow 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8165CAC-D98F-4860-8CCE-73B9ECFE8DBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7875788" y="13227843"/>
+          <a:ext cx="182880" cy="16194"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>384851</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>180310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396282</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Connector: Elbow 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9072B0BB-7B2B-4596-A45F-BEB4BBD6474E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="68" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8268362" y="13381339"/>
+          <a:ext cx="185450" cy="803911"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>179041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>394154</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>13971</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Connector: Elbow 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747C337E-EE8A-4C31-B62F-DD84576127A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="107" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7770299" y="15703536"/>
+          <a:ext cx="383570" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE88820-2303-4956-A390-C0EF5833ED99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7574280" y="7109460"/>
+          <a:ext cx="4754880" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GROUPES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0"/>
+            <a:t>[id].dict_cas[numero_cas]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" baseline="0"/>
+            <a:t> = Cas()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Connecteur : en angle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79C1AA2-F065-4EF7-8A2B-59BEB3FB57EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9464040" y="6621780"/>
+          <a:ext cx="182880" cy="792480"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF1341D-BAC1-43B7-AAC5-6CC85294C220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7574281" y="7658101"/>
+          <a:ext cx="4754879" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GROUPES[id].dict_cas[numero_cas].df_cas = GROUPES[id].sort_df[)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Connecteur : en angle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA405554-9230-496F-AC69-214CAE747558}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="2"/>
+          <a:endCxn id="51" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9860280" y="7566659"/>
+          <a:ext cx="182881" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>399497</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7231</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Connecteur : en angle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{231EDD41-BE53-4988-BBD4-92F62692C3A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="51" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9263934" y="7526184"/>
+          <a:ext cx="190110" cy="1185464"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15324</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>164940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>164939</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E8C3F5-2150-40A0-94C3-429D911C7A35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7589604" y="8188800"/>
+          <a:ext cx="4739556" cy="365759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>scale_factor, axe_min_max = GROUPES[id].calc_scale_factor()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924980CD-1A4D-403B-BFF3-98F71466BA31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7574280" y="8752811"/>
+          <a:ext cx="4754880" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GROUPES[id].plot_graphes_reperage_points(</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>164939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7662</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180311</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Connecteur : en angle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBC2662-0312-434B-8957-B8CB0A67207F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="2"/>
+          <a:endCxn id="55" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9856425" y="8649854"/>
+          <a:ext cx="198252" cy="7662"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>182215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>182216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9D544F-0DD1-4A64-A984-23E306712503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7574280" y="9303355"/>
+          <a:ext cx="4754880" cy="365761"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>create_3D_plot()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>786130</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>3781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>5685</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Connecteur : en angle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D196A71-74B9-4104-9223-622E5F9939DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="2"/>
+          <a:endCxn id="57" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9859328" y="9210963"/>
+          <a:ext cx="184784" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>182216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>789664</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Connecteur : en angle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6243938C-52FE-4EED-951C-84F8AF48CFDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="2"/>
+          <a:endCxn id="60" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10254780" y="9366056"/>
+          <a:ext cx="183544" cy="789664"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>786847</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C392CCE5-5B1A-4609-A5B1-5A8D6805E3BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9159240" y="9852660"/>
+          <a:ext cx="3164287" cy="363854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if type_groupe == lineaire</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>789665</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Connecteur : en angle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FFAAC19-2804-408E-B058-C8966118578B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="60" idx="2"/>
+          <a:endCxn id="33" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10638969" y="10318929"/>
+          <a:ext cx="207647" cy="2816"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9501C67-0682-49C0-A105-053FA6D3DE6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7574281" y="10949940"/>
+          <a:ext cx="2377439" cy="362173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Traitement data</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>397811</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>177388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>397810</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Connector: Elbow 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCE943C-5B54-4DB2-AB1B-59ED692FE26C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="2"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8274144" y="11008155"/>
+          <a:ext cx="188373" cy="792479"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4081</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC52FBDF-B256-4192-8AB0-47A31D560391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7574280" y="20274915"/>
+          <a:ext cx="2381521" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF3399"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>connect_new_database()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>387803</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Connecteur : en angle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A36F40-6224-4B0E-9F29-FFBD599E53D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="64" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8266815" y="19787166"/>
+          <a:ext cx="180976" cy="794521"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5905</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F14A912-CDB2-4B71-96B3-DE6B3F4C61AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7580185" y="20825460"/>
+          <a:ext cx="2371535" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>plot_tri()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388716</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Connecteur : en angle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB428528-7948-44FB-9BCC-A74F0ACAFDE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="2"/>
+          <a:endCxn id="66" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8662627" y="20732611"/>
+          <a:ext cx="184785" cy="912"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3811</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D8B84E-F7F9-43F7-BB75-70336892CB12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7578091" y="13876021"/>
+          <a:ext cx="2373629" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>check_match_defaut()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>781132</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58026B3B-11C0-4BC8-91E9-1F9A7E3105E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7574280" y="14424660"/>
+          <a:ext cx="2366092" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>plot_match_defaut()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388661</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396282</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Connector: Elbow 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A040D45-4FBE-4F0F-B39C-F307E856E187}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="2"/>
+          <a:endCxn id="69" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8667792" y="14329411"/>
+          <a:ext cx="182879" cy="7621"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393425</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388662</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>174596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Connector: Elbow 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5C91C5-C9F7-4886-97CA-EACADACB5F11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="2"/>
+          <a:endCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8182826" y="14575299"/>
+          <a:ext cx="357476" cy="787717"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396241</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396241</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Connector: Elbow 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B19C46DC-ABE6-4FA0-A4B7-1FE6ED6158EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6995160" y="-60960"/>
+          <a:ext cx="365761" cy="1584960"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>397810</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10201</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31713</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Connector: Elbow 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6A9056-C7A8-4597-AE9A-20C4FB12BC98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9164509" y="-643779"/>
+          <a:ext cx="397473" cy="2782311"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>407193</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>408148</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Connector: Elbow 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC9BEC6-20E8-4EDF-84A2-4853AC04D39C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="2"/>
+          <a:endCxn id="77" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12157711" y="1798669"/>
+          <a:ext cx="365759" cy="793435"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10202</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>407196</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Connector: Elbow 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1E8D68-20D0-43E5-A6E1-479EDA96ABC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="76" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11183908" y="882366"/>
+          <a:ext cx="330461" cy="1189474"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>14963</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2732</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91783D95-7383-4816-B59D-4D98CD34F15F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10744200" y="1645920"/>
+          <a:ext cx="2392403" cy="368492"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>class: ImageWindow() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>image_window</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14962</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2732</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D7502B-4EAE-451B-89B7-7D69BBCE595C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11538585" y="2380171"/>
+          <a:ext cx="2390497" cy="365761"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>image_window.initUI()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>14962</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>30203</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4BE96E-30B9-448C-8CAA-C7DE0AB6F7CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11551642" y="3108960"/>
+          <a:ext cx="2392681" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>image_window.check_fo_new_files()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>789903</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14962</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A230C5CE-97A2-43EF-9A1A-1E8FDCD09017}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534103" y="5303520"/>
+          <a:ext cx="2394979" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>image_window.update_label()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>26393</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{907D1429-0C02-43D5-A063-1F85B3001143}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12332970" y="3657600"/>
+          <a:ext cx="2400023" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>image_window.get_file_count()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>789902</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>14963</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D77520CC-C39A-4EBD-9B91-1080C0B523D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12326582" y="4206240"/>
+          <a:ext cx="2394981" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>image_window.show_image()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3811</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>14963</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B476070D-FC99-4AC2-A294-9BD0C785A023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13125451" y="4754880"/>
+          <a:ext cx="2388592" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>image_window.load_table_data()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14962</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{290685DB-E56F-4349-9A9B-2C2FADDEDC83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11540490" y="5852160"/>
+          <a:ext cx="2388592" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>image_window.keyPressEvent()</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>14963</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>408150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2731</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Connector: Elbow 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EEC08FA-4C7E-4442-BF16-CD865CE6C12F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="2"/>
+          <a:endCxn id="78" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11869204" y="2426465"/>
+          <a:ext cx="550545" cy="1185667"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 33391"/>
+            <a:gd name="adj2" fmla="val 119380"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>793714</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>408150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2730</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="Connector: Elbow 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF5941C-0F09-4BE8-ABA1-4BB4F3E1C329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="2"/>
+          <a:endCxn id="79" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10765060" y="3516880"/>
+          <a:ext cx="2745104" cy="1199396"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6935"/>
+            <a:gd name="adj2" fmla="val 119164"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>408149</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Connector: Elbow 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E04434A-5D2D-4D5F-83B6-1FB161132A08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="2"/>
+          <a:endCxn id="83" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10491488" y="3789220"/>
+          <a:ext cx="3291013" cy="1200629"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5803"/>
+            <a:gd name="adj2" fmla="val 119318"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>412912</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>416721</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2731</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Connector: Elbow 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25291E33-7DB3-4A42-A923-227BC479E039}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="78" idx="2"/>
+          <a:endCxn id="80" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="13048777" y="3170746"/>
+          <a:ext cx="182880" cy="796289"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>404340</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>416722</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Connector: Elbow 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A619DF33-5261-487E-AC6A-0BF962F85920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="2"/>
+          <a:endCxn id="81" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="13440731" y="4108609"/>
+          <a:ext cx="182880" cy="12382"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>404340</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409101</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2731</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Connector: Elbow 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96102CA-BDD1-4604-8AC1-1E3B3950774B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="2"/>
+          <a:endCxn id="82" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="13833161" y="4267550"/>
+          <a:ext cx="182880" cy="797241"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>178277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>775605</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B622B135-2225-46BC-B898-D857E749F5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="6396197"/>
+          <a:ext cx="2360565" cy="347503"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>config.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8ED8F4-DF69-4A18-B2B5-4BABCF6A3B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026922" y="6926580"/>
+          <a:ext cx="2377438" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>logging_config.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B954125E-4CCD-4EA3-8DE3-F89CFE6CD0FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026922" y="7475220"/>
+          <a:ext cx="2377438" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Acquisition.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B439B9-1B2C-4154-A83F-0B30A5FD5AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026922" y="8023860"/>
+          <a:ext cx="2377438" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Crop_Predict_Assemble.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736272AB-72DC-48E8-BC57-D0E64292351A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="8572501"/>
+          <a:ext cx="2377440" cy="365759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Visualisation.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF758F78-C353-451F-94B3-C082BB951FF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="11315699"/>
+          <a:ext cx="2377440" cy="365761"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>class_face_planche.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>771795</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53E9CDB-38B8-4A92-B722-3C477685F454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="9121140"/>
+          <a:ext cx="2356755" cy="365761"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>detection_defauts.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>758460</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E0A7E7-3F4F-401C-B95D-00FF71E70C58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="9669780"/>
+          <a:ext cx="2343420" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>utils.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E0495B-903B-48E7-8C8D-E82D6DF27CC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="10218421"/>
+          <a:ext cx="2377440" cy="365759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>class_partie_planche.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA86FCB5-FBC1-4E44-AC28-7AD4C39CBFCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="11864340"/>
+          <a:ext cx="2377440" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>utils_face_planche.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>178276</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B106AB1D-037A-457E-B1A8-6CE55C81B41D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="12412980"/>
+          <a:ext cx="2377440" cy="361156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF3399"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>operations_DB.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0481C753-2DB0-477E-A793-8ECFAA4CDE42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="10767060"/>
+          <a:ext cx="2377440" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>utils_partie_planche.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>12224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B861586-FED9-478B-9302-791E8B80AB7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="12973844"/>
+          <a:ext cx="2377440" cy="353536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="66FF66"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>tri_qualite.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F49972-2BCC-41B9-B8E9-F6E270195A03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="16802100"/>
+          <a:ext cx="2377440" cy="365759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="66FF66"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tri_qualite()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{128EFCF6-DB49-4A42-A172-AC5EACBB314C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7574280" y="18265140"/>
+          <a:ext cx="2377440" cy="365759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="66FF66"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>definition_zones()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058039A5-093D-476C-8E1A-D69011409457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7574280" y="17350740"/>
+          <a:ext cx="2377440" cy="365759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="66FF66"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>get_couleur_defaut()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB87E9BA-0C3D-4A2E-A959-D92A88D617B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8366760" y="17899380"/>
+          <a:ext cx="2377440" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="66FF66"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>get_classement()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F31F1A9-5BAB-451A-902F-CFDB77AEB337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="15895321"/>
+          <a:ext cx="2377440" cy="358139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="66FF66"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>traduction()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E31EAC0-C3F0-4DFF-ACC4-06136149304C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7574280" y="16436340"/>
+          <a:ext cx="2377440" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="66FF66"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>conv()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>387803</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>387803</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="Connector: Elbow 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024C81D5-DDC8-48EB-A4E5-1F6E02529E5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="107" idx="2"/>
+          <a:endCxn id="108" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8266883" y="15948660"/>
+          <a:ext cx="182880" cy="792480"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="Connector: Elbow 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F7EBB5B-473A-48D4-9541-FCCA2EE4A6E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="108" idx="2"/>
+          <a:endCxn id="103" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8266884" y="16314421"/>
+          <a:ext cx="182880" cy="792480"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>182878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="Connector: Elbow 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8E72D9-7081-499B-8634-127067B7B026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="2"/>
+          <a:endCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8266883" y="16863059"/>
+          <a:ext cx="182881" cy="792480"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>182878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="Connector: Elbow 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65E527E-8B65-4D0D-A474-18B4480ECE91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="2"/>
+          <a:endCxn id="106" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9059363" y="17411699"/>
+          <a:ext cx="182881" cy="792480"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="Connector: Elbow 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F19B107-5596-43F2-BE23-7ADC38CB45D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="106" idx="2"/>
+          <a:endCxn id="104" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9059364" y="17777461"/>
+          <a:ext cx="182880" cy="792480"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381455</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>189228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>394155</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="Connector: Elbow 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9108233D-C53E-411A-B07C-093302805A0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="104" idx="2"/>
+          <a:endCxn id="118" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8659314" y="18718529"/>
+          <a:ext cx="190501" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>186358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>389660</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>172691</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Connector: Elbow 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E42521-2825-4349-8058-6E214C45E19A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="6373863" y="13921675"/>
+          <a:ext cx="1998013" cy="1182140"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -7654"/>
+            <a:gd name="adj2" fmla="val 166963"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA6DAE5-2156-4FDF-9EDD-296A927B7488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="19179540"/>
+          <a:ext cx="2377440" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="66FF66"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>define_couleur_face()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="Connector: Elbow 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BC09B5-0DEB-478C-B57C-A9EE477BF0ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="116" idx="2"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7778183" y="19544279"/>
+          <a:ext cx="365760" cy="2042"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02184509-72AD-4A08-B422-1CBE55DC4F5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7574280" y="18813780"/>
+          <a:ext cx="2377440" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="66FF66"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>clean_face()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="Connector: Elbow 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF4198B-B743-4158-AE95-37832141E67F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="118" idx="2"/>
+          <a:endCxn id="116" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8266884" y="18691861"/>
+          <a:ext cx="182880" cy="792480"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396241</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="Connecteur : en angle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CE4948-CF95-4BCB-BCF6-8D49B466EF81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="2"/>
+          <a:endCxn id="62" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8716949" y="9715169"/>
+          <a:ext cx="1280824" cy="1188719"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8355"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>181088</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="178" name="Connector: Elbow 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8B160C-8506-4325-BE32-3894A5638238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="1"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6781801" y="6743701"/>
+          <a:ext cx="792481" cy="4387327"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 128846"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7095,8 +16444,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7995251" y="7198628"/>
-          <a:ext cx="748552" cy="905994"/>
+          <a:off x="7938549" y="7196723"/>
+          <a:ext cx="739588" cy="907899"/>
           <a:chOff x="150690" y="381000"/>
           <a:chExt cx="740850" cy="912495"/>
         </a:xfrm>
@@ -7372,8 +16721,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="615440" y="1117409"/>
-          <a:ext cx="749987" cy="913615"/>
+          <a:off x="609389" y="1117409"/>
+          <a:ext cx="741022" cy="909805"/>
           <a:chOff x="150690" y="381000"/>
           <a:chExt cx="740850" cy="912495"/>
         </a:xfrm>
@@ -8197,8 +17546,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18948027" y="1595262"/>
-          <a:ext cx="934111" cy="11226926"/>
+          <a:off x="18794059" y="1597167"/>
+          <a:ext cx="937247" cy="11228831"/>
           <a:chOff x="20032189" y="965656"/>
           <a:chExt cx="1002267" cy="11509767"/>
         </a:xfrm>
@@ -10584,8 +19933,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9009240" y="8105204"/>
-          <a:ext cx="902348" cy="895456"/>
+          <a:off x="8943574" y="8105204"/>
+          <a:ext cx="893383" cy="895456"/>
           <a:chOff x="9680954" y="14260396"/>
           <a:chExt cx="1017524" cy="896334"/>
         </a:xfrm>
@@ -11024,8 +20373,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8477145" y="3588358"/>
-          <a:ext cx="906157" cy="895456"/>
+          <a:off x="8415960" y="3588358"/>
+          <a:ext cx="897194" cy="895456"/>
           <a:chOff x="9680954" y="14260396"/>
           <a:chExt cx="1017524" cy="896334"/>
         </a:xfrm>
@@ -11146,8 +20495,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8485905" y="2453387"/>
-          <a:ext cx="896162" cy="891645"/>
+          <a:off x="8417100" y="2455292"/>
+          <a:ext cx="894819" cy="889740"/>
           <a:chOff x="9680954" y="14260396"/>
           <a:chExt cx="1017524" cy="896334"/>
         </a:xfrm>
@@ -12558,7 +21907,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13874,8 +23223,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7999061" y="7200533"/>
-          <a:ext cx="748552" cy="904089"/>
+          <a:off x="7934739" y="7198628"/>
+          <a:ext cx="739588" cy="905994"/>
           <a:chOff x="150690" y="381000"/>
           <a:chExt cx="740850" cy="912495"/>
         </a:xfrm>
@@ -14151,8 +23500,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="611630" y="1117409"/>
-          <a:ext cx="749987" cy="909805"/>
+          <a:off x="613199" y="1117409"/>
+          <a:ext cx="741022" cy="913615"/>
           <a:chOff x="150690" y="381000"/>
           <a:chExt cx="740850" cy="912495"/>
         </a:xfrm>
@@ -14976,8 +24325,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18944217" y="1593357"/>
-          <a:ext cx="936016" cy="11225021"/>
+          <a:off x="18797869" y="1595262"/>
+          <a:ext cx="929627" cy="11226926"/>
           <a:chOff x="20032189" y="965656"/>
           <a:chExt cx="1002267" cy="11509767"/>
         </a:xfrm>
@@ -17363,8 +26712,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9013050" y="8105204"/>
-          <a:ext cx="902348" cy="895456"/>
+          <a:off x="8939764" y="8105204"/>
+          <a:ext cx="893383" cy="895456"/>
           <a:chOff x="9680954" y="14260396"/>
           <a:chExt cx="1017524" cy="896334"/>
         </a:xfrm>
@@ -17803,8 +27152,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8475240" y="3588358"/>
-          <a:ext cx="911872" cy="895456"/>
+          <a:off x="8412150" y="3588358"/>
+          <a:ext cx="897194" cy="895456"/>
           <a:chOff x="9680954" y="14260396"/>
           <a:chExt cx="1017524" cy="896334"/>
         </a:xfrm>
@@ -17925,8 +27274,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8482095" y="2451482"/>
-          <a:ext cx="903782" cy="893550"/>
+          <a:off x="8420910" y="2453387"/>
+          <a:ext cx="887199" cy="891645"/>
           <a:chOff x="9680954" y="14260396"/>
           <a:chExt cx="1017524" cy="896334"/>
         </a:xfrm>
@@ -19337,8 +28686,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -19653,14 +29006,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1671BA7-68CA-4E27-9590-FCC9B661F4E4}">
+  <dimension ref="A36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="21" max="21" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="36" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352D0CE8-DE2B-4D99-A1FE-77AC938B0588}">
-  <dimension ref="B4:L20"/>
+  <dimension ref="B4:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="26.44140625" customWidth="1"/>
@@ -19671,13 +29046,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="31" t="s">
         <v>1724</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="31" t="s">
         <v>1741</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="31" t="s">
         <v>1753</v>
       </c>
     </row>
@@ -19736,7 +29111,7 @@
       <c r="H8" t="s">
         <v>1750</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="30" t="s">
         <v>1756</v>
       </c>
     </row>
@@ -19753,7 +29128,7 @@
       <c r="H9" t="s">
         <v>1747</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="30" t="s">
         <v>1757</v>
       </c>
     </row>
@@ -19781,7 +29156,7 @@
       <c r="D11" t="s">
         <v>1747</v>
       </c>
-      <c r="L11" s="35" t="s">
+      <c r="L11" s="30" t="s">
         <v>1759</v>
       </c>
     </row>
@@ -19792,7 +29167,7 @@
       <c r="D12" t="s">
         <v>1748</v>
       </c>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="30" t="s">
         <v>1760</v>
       </c>
     </row>
@@ -19828,24 +29203,29 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>1738</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>1739</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>1740</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>1763</v>
       </c>
     </row>
   </sheetData>
@@ -19853,7 +29233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B464048-CBA8-4C07-B0CC-BDE7E89EECCE}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H3355"/>
@@ -19862,7 +29242,7 @@
       <selection activeCell="A1508" sqref="A1508:XFD1508"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="14" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" style="15" customWidth="1"/>
@@ -20315,10 +29695,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -20967,13 +30347,13 @@
       <c r="B48" s="15">
         <v>502</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="34" t="s">
         <v>60</v>
       </c>
     </row>
@@ -20984,9 +30364,9 @@
       <c r="B49" s="15">
         <v>503</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="32"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="34"/>
     </row>
     <row r="50" spans="1:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
@@ -48679,7 +58059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3283E9-9698-4EC3-AB3A-6C66D7909F18}">
   <dimension ref="U16"/>
   <sheetViews>
@@ -48687,7 +58067,7 @@
       <selection activeCell="AN35" sqref="AN35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="35" max="35" width="3.21875" customWidth="1"/>
@@ -48703,7 +58083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D903061-9515-4C49-81A9-719DE830889B}">
   <dimension ref="U16"/>
   <sheetViews>
@@ -48711,7 +58091,7 @@
       <selection activeCell="AN35" sqref="AN35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="35" max="35" width="3.21875" customWidth="1"/>
